--- a/biology/Médecine/Tommaso_Casoni/Tommaso_Casoni.xlsx
+++ b/biology/Médecine/Tommaso_Casoni/Tommaso_Casoni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tommaso Casoni (ou Tomaso Casoni) (1880–1933) était un médecin italien connu pour avoir décrit le test de Casoni pour le diagnostic de la maladie hydatique.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tommaso Casoni est né le 27 août 1880 à Imola. Il a étudié au Liceo Torricelli College de Faenza et à l'Université de Bologne, obtenant son doctorat en médecine en 1906. En 1910, il s'installe en Sardaigne pour effectuer des recherches sur la maladie hydatique, ce qui aboutit à la publication de son test éponyme[1]. Il a ensuite déménagé à Tripoli dans le nouvel hôpital, L'Ospedale Coloniale Vittorio Eumanuele III. Il y est resté en tant que médecin-chef pendant 20 ans. Il mourut à Imola le 6 septembre 1933 d'une maladie rénale à l'âge de 53 ans[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tommaso Casoni est né le 27 août 1880 à Imola. Il a étudié au Liceo Torricelli College de Faenza et à l'Université de Bologne, obtenant son doctorat en médecine en 1906. En 1910, il s'installe en Sardaigne pour effectuer des recherches sur la maladie hydatique, ce qui aboutit à la publication de son test éponyme. Il a ensuite déménagé à Tripoli dans le nouvel hôpital, L'Ospedale Coloniale Vittorio Eumanuele III. Il y est resté en tant que médecin-chef pendant 20 ans. Il mourut à Imola le 6 septembre 1933 d'une maladie rénale à l'âge de 53 ans.
 </t>
         </is>
       </c>
